--- a/src/main/java/resources/Appium_excel.xlsx
+++ b/src/main/java/resources/Appium_excel.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="108" windowWidth="22980" windowHeight="9288"/>
+    <workbookView xWindow="0" yWindow="108" windowWidth="22980" windowHeight="9288" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ShoppApp" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Items" sheetId="2" r:id="rId2"/>
+    <sheet name="Details" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
   <si>
     <t>Name</t>
   </si>
@@ -40,6 +40,33 @@
   </si>
   <si>
     <t>Nike SFB Jungle</t>
+  </si>
+  <si>
+    <t>Sauce Labs Fleece Jacket</t>
+  </si>
+  <si>
+    <t>Test.allTheThings() T-Shirt</t>
+  </si>
+  <si>
+    <t>Fullname</t>
+  </si>
+  <si>
+    <t>CardNumber</t>
+  </si>
+  <si>
+    <t>EXP Date</t>
+  </si>
+  <si>
+    <t>Session Code</t>
+  </si>
+  <si>
+    <t>Rebecca Winter</t>
+  </si>
+  <si>
+    <t>325812657568789,</t>
+  </si>
+  <si>
+    <t>,03/25</t>
   </si>
 </sst>
 </file>
@@ -75,8 +102,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -380,7 +408,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -463,26 +491,82 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="22.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2">
+        <v>123</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>